--- a/CAS_papers.xlsx
+++ b/CAS_papers.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABEACE02EC5EFB1E560C5ADE58A3" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{3284A68E-E1F5-498E-BE8D-A2565FD4C5FE}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_F25DC773A252ABEACE02EC5EFB1E560C5ADE58A3" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{50DF9488-887B-4D51-B366-F04FE5319405}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -43,37 +43,73 @@
     <t>Flexible Models for Microclustering with Application to Entity Resolution</t>
   </si>
   <si>
-    <t>https://arxiv.org/abs/1610.09780</t>
-  </si>
-  <si>
-    <t>Framework for Evaluating Clustering Algorithms in Duplicate Detection</t>
-  </si>
-  <si>
-    <t>http://dblab.cs.toronto.edu/~fchiang/docs/vldb09.pdf</t>
-  </si>
-  <si>
-    <t>Handbook of Cluster Analysis</t>
-  </si>
-  <si>
-    <t>https://sites.stat.washington.edu/people/mmp/Papers/ch2.2.pdf</t>
-  </si>
-  <si>
     <t>A Hierarchical Algorithm for Extreme Clustering</t>
   </si>
   <si>
-    <t>https://dl.acm.org/doi/pdf/10.1145/3097983.3098079</t>
-  </si>
-  <si>
-    <t>Dimension Independent Similarity Computation</t>
-  </si>
-  <si>
-    <t>https://www.jmlr.org/papers/volume14/bosagh-zadeh13a/bosagh-zadeh13a.pdf</t>
-  </si>
-  <si>
-    <t>Efficient Edit Similarity Joins via Embeddings</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/1702.00093</t>
+    <t>Low Distortion Embeddings for Edit Distance</t>
+  </si>
+  <si>
+    <t>https://citeseerx.ist.psu.edu/viewdoc/download?doi=10.1.1.1077.3119&amp;rep=rep1&amp;type=pdf</t>
+  </si>
+  <si>
+    <t>A Comprehensive Survey of Clustering Algorithms</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s40745-015-0040-1</t>
+  </si>
+  <si>
+    <t>Survey of Clustering Algorithms</t>
+  </si>
+  <si>
+    <t>https://scholarsmine.mst.edu/cgi/viewcontent.cgi?article=1763&amp;context=ele_comeng_facwork</t>
+  </si>
+  <si>
+    <t>A Characterization of the DNA Data Storage Channel</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41598-019-45832-6#Sec7</t>
+  </si>
+  <si>
+    <t>https://papers.nips.cc/paper/2016/file/670e8a43b246801ca1eaca97b3e19189-Paper.pdf</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/abs/10.1145/3097983.3098079</t>
+  </si>
+  <si>
+    <t>EmbedJoin: Efficient Edit Similarity Joins via Embeddings</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/abs/10.1145/3097983.3098003</t>
+  </si>
+  <si>
+    <t>Convolutional Embedding for Edit Distance</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2001.11692</t>
+  </si>
+  <si>
+    <t>Deep metric learning using Triplet network</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1412.6622</t>
+  </si>
+  <si>
+    <t>http://proceedings.mlr.press/v48/xieb16.html</t>
+  </si>
+  <si>
+    <t>Unsupervised Deep Embedding for Clustering Analysis</t>
+  </si>
+  <si>
+    <t>Clustering with Deep Learning: Taxonomy and New Methods</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1801.07648</t>
+  </si>
+  <si>
+    <t>A Survey of Clustering With Deep Learning: From the Perspective of Network Architecture</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/8412085</t>
   </si>
 </sst>
 </file>
@@ -406,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,11 +461,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -443,10 +479,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -473,20 +509,68 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/CAS_papers.xlsx
+++ b/CAS_papers.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_F25DC773A252ABEACE02EC5EFB1E560C5ADE58A3" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{50DF9488-887B-4D51-B366-F04FE5319405}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="5_{3020E885-540D-4F3C-A65B-8FA286BA714E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{4F7CF40B-67EA-465F-8CB6-1B0D05776A5B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -88,35 +88,98 @@
     <t>https://arxiv.org/abs/2001.11692</t>
   </si>
   <si>
-    <t>Deep metric learning using Triplet network</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/1412.6622</t>
-  </si>
-  <si>
-    <t>http://proceedings.mlr.press/v48/xieb16.html</t>
+    <t>An Efficient Approach to Clustering in Large Multimedia Databases with Noise</t>
+  </si>
+  <si>
+    <t>https://www.aaai.org/Papers/KDD/1998/KDD98-009.pdf</t>
+  </si>
+  <si>
+    <t>Using the Fractal Dimension to Cluster Datasets</t>
+  </si>
+  <si>
+    <t>http://make.cs.nthu.edu.tw/makeWeb/alp/course/cs5730/teacher%20paper/Using%20the%20Fractal%20Dimension%20to%20Cluster%20Datasets.pdf</t>
+  </si>
+  <si>
+    <t>A Framework for Projected Clustering of High Dimensional Data Streams</t>
+  </si>
+  <si>
+    <t>http://www.vldb.org/conf/2004/RS21P7.PDF</t>
+  </si>
+  <si>
+    <t>A Distribution-Based Clustering Algorithm for Mining in Large Spatial Databases</t>
+  </si>
+  <si>
+    <t>http://www.cip.ifi.lmu.de/~xwxu/publications/icde-98.pdf</t>
+  </si>
+  <si>
+    <t>STING : A Statistical Information Grid Approach to Spatial Data Mining</t>
+  </si>
+  <si>
+    <t>http://suraj.lums.edu.pk/~cs536a04/handouts/STING.pdf</t>
+  </si>
+  <si>
+    <t>https://scikit-learn.org/stable/modules/random_projection.html#random-projection</t>
+  </si>
+  <si>
+    <t>Random projections</t>
+  </si>
+  <si>
+    <t>Deep Clustering with Convolutional Autoencoders</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Xifeng_Guo/publication/320658590_Deep_Clustering_with_Convolutional_Autoencoders/links/5a2ba172aca2728e05dea395/Deep-Clustering-with-Convolutional-Autoencoders.pdf</t>
+  </si>
+  <si>
+    <t>Deep clustering: Discriminative embeddings for segmentation and separation</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1508.04306.pdf</t>
+  </si>
+  <si>
+    <t>Deep Clustering via Joint Convolutional Autoencoder Embedding and Relative Entropy Minimization</t>
+  </si>
+  <si>
+    <t>https://openaccess.thecvf.com/content_ICCV_2017/papers/Dizaji_Deep_Clustering_via_ICCV_2017_paper.pdf</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8412085</t>
+  </si>
+  <si>
+    <t>A Survey of Clustering With Deep Learning: From the Perspective of Network Architecture</t>
+  </si>
+  <si>
+    <t>Deep Continuous Clustering</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1803.01449.pdf</t>
+  </si>
+  <si>
+    <t>Clustering with Deep Learning: Taxonomy and New Methods</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1801.07648.pdf</t>
+  </si>
+  <si>
+    <t>Deep learning-based clustering approaches for bioinformatics</t>
+  </si>
+  <si>
+    <t>https://watermark.silverchair.com/bbz170.pdf?token=AQECAHi208BE49Ooan9kkhW_Ercy7Dm3ZL_9Cf3qfKAc485ysgAAApwwggKYBgkqhkiG9w0BBwagggKJMIIChQIBADCCAn4GCSqGSIb3DQEHATAeBglghkgBZQMEAS4wEQQMQZ1dEMqPyOggcZelAgEQgIICT4T188OyhhcWQQvadHSsaSf_3qZ0JjwCp5qkmzT0k-g979S4n4tTi_gnLiXVXw0oNKz4OuDm8Jk-bwYXxzQRVxwLkjUtYN-2iDKA84avWZ7SopVwoJc2FqFZ0eaZYG5cnFOVc40SRi74YVP59Pw-u2-pdTQpiaxoMFylcGy7L4-zr8ykTx1X0hBaVYZ3ul07JG5C73AceLTC_gr8u4JK9zhK3hpPqsrFoMQ7ReanDo57PBMxfsZbPwqGShw35SONuW_cv6a5MOCk0Jmhf-sfPq3aHephZSN592g0jrrD9Rhzzwl2fDKGqykHgYAy63xVCIdaOP_At8-lXzc992EOlFUjo3gWhFebkIjviU_0yGiLZT3RB0Hz2Caxm-fI2ml7kigv_wRyNXEN-e3Zy98lFunb6LE24NfpQ3jU5Ssn82mGjbp7wzXN0Rlok8bI3xxQu-B6A8zHQvnwlrLHBXNCM0lIZ9XSlrx6BYFcoIV3G1HsZLsLNXMcfD5E9jzOO4oMosgXQ950xZf6a4aEilOpB4Rs6-lrIbFMjNZdLUlYv8E_VEbprIPeBNrWf2Lf_o3QH_NI3fFhyc7tZ3bA-pybKyEb7yPFTTgSkVQSA2CJ7W5w86axlvNvcnOxDYURWHhIt-2FZO-zv25zUucv9oHkadpvWRyj_CTtNofHYinFC_agIa-NvveJqywXn2neaDJwe-xiN3y1tLoJ_OdhRkFnzss1DQOb0mvO5qmMuYiyr5H54srypMIAWqWzYIshqAWHT-_xjAq1u_dcIVpc-_GEGw</t>
   </si>
   <si>
     <t>Unsupervised Deep Embedding for Clustering Analysis</t>
   </si>
   <si>
-    <t>Clustering with Deep Learning: Taxonomy and New Methods</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/1801.07648</t>
-  </si>
-  <si>
-    <t>A Survey of Clustering With Deep Learning: From the Perspective of Network Architecture</t>
-  </si>
-  <si>
-    <t>https://ieeexplore.ieee.org/abstract/document/8412085</t>
+    <t>http://proceedings.mlr.press/v48/xieb16.pdf</t>
+  </si>
+  <si>
+    <t>Unsupervised Deep Hashing with Similarity-Adaptive and Discrete Optimization</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,8 +194,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,8 +230,18 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -153,17 +249,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -442,18 +562,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="100.85546875" customWidth="1"/>
+    <col min="1" max="2" width="100.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,15 +581,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -477,7 +597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -485,7 +605,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -493,15 +613,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2" s="2" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -509,15 +629,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -525,7 +645,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -533,47 +653,137 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{0E50E2A9-B384-4830-8054-CA4045755499}"/>
+    <hyperlink ref="B23" r:id="rId2" xr:uid="{C0C55EDE-2287-4EF5-9446-134EBE862BAE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/CAS_papers.xlsx
+++ b/CAS_papers.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="5_{3020E885-540D-4F3C-A65B-8FA286BA714E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{4F7CF40B-67EA-465F-8CB6-1B0D05776A5B}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="5_{3020E885-540D-4F3C-A65B-8FA286BA714E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{300733B9-1595-441D-BDE5-2608B82F8613}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,23 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
     <t>Clustering Billions of Reads for DNA Data Storage</t>
   </si>
   <si>
-    <t>https://www.microsoft.com/en-us/research/publication/clustering-billions-of-reads-for-dna-data-storage/</t>
-  </si>
-  <si>
-    <t>https://www.jmlr.org/papers/volume15/balcan14a/balcan14a.pdf</t>
-  </si>
-  <si>
     <t>Robust Hierarchical Clustering</t>
   </si>
   <si>
@@ -49,127 +40,61 @@
     <t>Low Distortion Embeddings for Edit Distance</t>
   </si>
   <si>
-    <t>https://citeseerx.ist.psu.edu/viewdoc/download?doi=10.1.1.1077.3119&amp;rep=rep1&amp;type=pdf</t>
-  </si>
-  <si>
     <t>A Comprehensive Survey of Clustering Algorithms</t>
   </si>
   <si>
-    <t>https://link.springer.com/article/10.1007/s40745-015-0040-1</t>
-  </si>
-  <si>
     <t>Survey of Clustering Algorithms</t>
   </si>
   <si>
-    <t>https://scholarsmine.mst.edu/cgi/viewcontent.cgi?article=1763&amp;context=ele_comeng_facwork</t>
-  </si>
-  <si>
     <t>A Characterization of the DNA Data Storage Channel</t>
   </si>
   <si>
-    <t>https://www.nature.com/articles/s41598-019-45832-6#Sec7</t>
-  </si>
-  <si>
-    <t>https://papers.nips.cc/paper/2016/file/670e8a43b246801ca1eaca97b3e19189-Paper.pdf</t>
-  </si>
-  <si>
-    <t>https://dl.acm.org/doi/abs/10.1145/3097983.3098079</t>
-  </si>
-  <si>
     <t>EmbedJoin: Efficient Edit Similarity Joins via Embeddings</t>
   </si>
   <si>
-    <t>https://dl.acm.org/doi/abs/10.1145/3097983.3098003</t>
-  </si>
-  <si>
     <t>Convolutional Embedding for Edit Distance</t>
   </si>
   <si>
-    <t>https://arxiv.org/abs/2001.11692</t>
-  </si>
-  <si>
     <t>An Efficient Approach to Clustering in Large Multimedia Databases with Noise</t>
   </si>
   <si>
-    <t>https://www.aaai.org/Papers/KDD/1998/KDD98-009.pdf</t>
-  </si>
-  <si>
     <t>Using the Fractal Dimension to Cluster Datasets</t>
   </si>
   <si>
-    <t>http://make.cs.nthu.edu.tw/makeWeb/alp/course/cs5730/teacher%20paper/Using%20the%20Fractal%20Dimension%20to%20Cluster%20Datasets.pdf</t>
-  </si>
-  <si>
     <t>A Framework for Projected Clustering of High Dimensional Data Streams</t>
   </si>
   <si>
-    <t>http://www.vldb.org/conf/2004/RS21P7.PDF</t>
-  </si>
-  <si>
     <t>A Distribution-Based Clustering Algorithm for Mining in Large Spatial Databases</t>
   </si>
   <si>
-    <t>http://www.cip.ifi.lmu.de/~xwxu/publications/icde-98.pdf</t>
-  </si>
-  <si>
     <t>STING : A Statistical Information Grid Approach to Spatial Data Mining</t>
   </si>
   <si>
-    <t>http://suraj.lums.edu.pk/~cs536a04/handouts/STING.pdf</t>
-  </si>
-  <si>
-    <t>https://scikit-learn.org/stable/modules/random_projection.html#random-projection</t>
-  </si>
-  <si>
     <t>Random projections</t>
   </si>
   <si>
     <t>Deep Clustering with Convolutional Autoencoders</t>
   </si>
   <si>
-    <t>https://www.researchgate.net/profile/Xifeng_Guo/publication/320658590_Deep_Clustering_with_Convolutional_Autoencoders/links/5a2ba172aca2728e05dea395/Deep-Clustering-with-Convolutional-Autoencoders.pdf</t>
-  </si>
-  <si>
     <t>Deep clustering: Discriminative embeddings for segmentation and separation</t>
   </si>
   <si>
-    <t>https://arxiv.org/pdf/1508.04306.pdf</t>
-  </si>
-  <si>
     <t>Deep Clustering via Joint Convolutional Autoencoder Embedding and Relative Entropy Minimization</t>
   </si>
   <si>
-    <t>https://openaccess.thecvf.com/content_ICCV_2017/papers/Dizaji_Deep_Clustering_via_ICCV_2017_paper.pdf</t>
-  </si>
-  <si>
-    <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8412085</t>
-  </si>
-  <si>
     <t>A Survey of Clustering With Deep Learning: From the Perspective of Network Architecture</t>
   </si>
   <si>
     <t>Deep Continuous Clustering</t>
   </si>
   <si>
-    <t>https://arxiv.org/pdf/1803.01449.pdf</t>
-  </si>
-  <si>
     <t>Clustering with Deep Learning: Taxonomy and New Methods</t>
   </si>
   <si>
-    <t>https://arxiv.org/pdf/1801.07648.pdf</t>
-  </si>
-  <si>
     <t>Deep learning-based clustering approaches for bioinformatics</t>
   </si>
   <si>
-    <t>https://watermark.silverchair.com/bbz170.pdf?token=AQECAHi208BE49Ooan9kkhW_Ercy7Dm3ZL_9Cf3qfKAc485ysgAAApwwggKYBgkqhkiG9w0BBwagggKJMIIChQIBADCCAn4GCSqGSIb3DQEHATAeBglghkgBZQMEAS4wEQQMQZ1dEMqPyOggcZelAgEQgIICT4T188OyhhcWQQvadHSsaSf_3qZ0JjwCp5qkmzT0k-g979S4n4tTi_gnLiXVXw0oNKz4OuDm8Jk-bwYXxzQRVxwLkjUtYN-2iDKA84avWZ7SopVwoJc2FqFZ0eaZYG5cnFOVc40SRi74YVP59Pw-u2-pdTQpiaxoMFylcGy7L4-zr8ykTx1X0hBaVYZ3ul07JG5C73AceLTC_gr8u4JK9zhK3hpPqsrFoMQ7ReanDo57PBMxfsZbPwqGShw35SONuW_cv6a5MOCk0Jmhf-sfPq3aHephZSN592g0jrrD9Rhzzwl2fDKGqykHgYAy63xVCIdaOP_At8-lXzc992EOlFUjo3gWhFebkIjviU_0yGiLZT3RB0Hz2Caxm-fI2ml7kigv_wRyNXEN-e3Zy98lFunb6LE24NfpQ3jU5Ssn82mGjbp7wzXN0Rlok8bI3xxQu-B6A8zHQvnwlrLHBXNCM0lIZ9XSlrx6BYFcoIV3G1HsZLsLNXMcfD5E9jzOO4oMosgXQ950xZf6a4aEilOpB4Rs6-lrIbFMjNZdLUlYv8E_VEbprIPeBNrWf2Lf_o3QH_NI3fFhyc7tZ3bA-pybKyEb7yPFTTgSkVQSA2CJ7W5w86axlvNvcnOxDYURWHhIt-2FZO-zv25zUucv9oHkadpvWRyj_CTtNofHYinFC_agIa-NvveJqywXn2neaDJwe-xiN3y1tLoJ_OdhRkFnzss1DQOb0mvO5qmMuYiyr5H54srypMIAWqWzYIshqAWHT-_xjAq1u_dcIVpc-_GEGw</t>
-  </si>
-  <si>
     <t>Unsupervised Deep Embedding for Clustering Analysis</t>
-  </si>
-  <si>
-    <t>http://proceedings.mlr.press/v48/xieb16.pdf</t>
   </si>
   <si>
     <t>Unsupervised Deep Hashing with Similarity-Adaptive and Discrete Optimization</t>
@@ -179,7 +104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,61 +112,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -249,41 +129,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -562,228 +415,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="100.88671875" customWidth="1"/>
+    <col min="1" max="1" width="100.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{0E50E2A9-B384-4830-8054-CA4045755499}"/>
-    <hyperlink ref="B23" r:id="rId2" xr:uid="{C0C55EDE-2287-4EF5-9446-134EBE862BAE}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>